--- a/reactive/_full-system-blackscholes.xlsx
+++ b/reactive/_full-system-blackscholes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49275CFA-A2F4-4E56-A371-28F48DA1B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EF17A8-6DE5-433F-B913-B07C87640AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="732" windowWidth="30768" windowHeight="16548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="30768" windowHeight="16548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1044,16 +1044,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1369,7 +1369,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
